--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -944,6 +944,10 @@
   </si>
   <si>
     <t>Categorization of the medication within a formulary or classification system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
   </si>
   <si>
     <t>MedicationKnowledge.medicineClassification.id</t>
@@ -9884,7 +9888,7 @@
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>156</v>
@@ -9925,7 +9929,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10034,7 +10038,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10145,7 +10149,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10258,7 +10262,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10284,10 +10288,10 @@
         <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10338,7 +10342,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>48</v>
@@ -10367,7 +10371,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10393,10 +10397,10 @@
         <v>106</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10447,7 +10451,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10479,7 +10483,7 @@
         <v>292</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>40</v>
@@ -10587,7 +10591,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10696,7 +10700,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10807,7 +10811,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10920,7 +10924,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10946,10 +10950,10 @@
         <v>106</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10961,7 +10965,7 @@
         <v>40</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>40</v>
@@ -11000,7 +11004,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>48</v>
@@ -11029,7 +11033,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11055,10 +11059,10 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11109,7 +11113,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11138,7 +11142,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11164,10 +11168,10 @@
         <v>152</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11218,7 +11222,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11247,7 +11251,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11356,7 +11360,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11467,7 +11471,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11580,7 +11584,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11606,10 +11610,10 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11639,10 +11643,10 @@
         <v>110</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>40</v>
@@ -11660,7 +11664,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11689,7 +11693,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11715,10 +11719,10 @@
         <v>143</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11769,7 +11773,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11798,7 +11802,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11824,10 +11828,10 @@
         <v>152</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11866,7 +11870,7 @@
         <v>40</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>156</v>
@@ -11878,7 +11882,7 @@
         <v>157</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11907,7 +11911,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12016,7 +12020,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12127,7 +12131,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12240,7 +12244,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12248,7 +12252,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>48</v>
@@ -12266,10 +12270,10 @@
         <v>106</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12299,10 +12303,10 @@
         <v>110</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -12320,7 +12324,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12349,7 +12353,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12372,16 +12376,16 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12431,7 +12435,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12460,10 +12464,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>40</v>
@@ -12488,10 +12492,10 @@
         <v>152</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12542,7 +12546,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12571,7 +12575,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12680,7 +12684,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12791,7 +12795,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12904,7 +12908,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12930,10 +12934,10 @@
         <v>106</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12945,7 +12949,7 @@
         <v>40</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>40</v>
@@ -12963,10 +12967,10 @@
         <v>110</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>40</v>
@@ -12984,7 +12988,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13013,7 +13017,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13036,16 +13040,16 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13095,7 +13099,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13124,10 +13128,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>40</v>
@@ -13152,10 +13156,10 @@
         <v>152</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13206,7 +13210,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13235,7 +13239,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13344,7 +13348,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13455,7 +13459,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13568,7 +13572,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13594,10 +13598,10 @@
         <v>106</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13609,7 +13613,7 @@
         <v>40</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>40</v>
@@ -13627,10 +13631,10 @@
         <v>110</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>40</v>
@@ -13648,7 +13652,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13677,7 +13681,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13700,16 +13704,16 @@
         <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13759,7 +13763,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13788,10 +13792,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>40</v>
@@ -13816,10 +13820,10 @@
         <v>152</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13870,7 +13874,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13899,7 +13903,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14008,7 +14012,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14119,7 +14123,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14232,7 +14236,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14258,10 +14262,10 @@
         <v>106</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14273,7 +14277,7 @@
         <v>40</v>
       </c>
       <c r="R116" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>40</v>
@@ -14291,10 +14295,10 @@
         <v>110</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>40</v>
@@ -14312,7 +14316,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14341,7 +14345,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14364,16 +14368,16 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14423,7 +14427,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14452,10 +14456,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>40</v>
@@ -14480,10 +14484,10 @@
         <v>152</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14534,7 +14538,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14563,7 +14567,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14672,7 +14676,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14783,7 +14787,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14896,7 +14900,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14922,10 +14926,10 @@
         <v>106</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -14937,7 +14941,7 @@
         <v>40</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>40</v>
@@ -14955,10 +14959,10 @@
         <v>110</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>40</v>
@@ -14976,7 +14980,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15005,7 +15009,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15028,16 +15032,16 @@
         <v>40</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15087,7 +15091,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15116,10 +15120,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>40</v>
@@ -15144,10 +15148,10 @@
         <v>152</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15198,7 +15202,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -15227,7 +15231,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15336,7 +15340,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15447,7 +15451,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15560,7 +15564,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15586,10 +15590,10 @@
         <v>106</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15601,7 +15605,7 @@
         <v>40</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>40</v>
@@ -15619,10 +15623,10 @@
         <v>110</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15640,7 +15644,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15669,7 +15673,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15692,16 +15696,16 @@
         <v>40</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -15751,7 +15755,7 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -15780,10 +15784,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>40</v>
@@ -15808,10 +15812,10 @@
         <v>152</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15862,7 +15866,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -15891,7 +15895,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16000,7 +16004,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16111,7 +16115,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16224,7 +16228,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16250,10 +16254,10 @@
         <v>106</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16265,7 +16269,7 @@
         <v>40</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>40</v>
@@ -16283,10 +16287,10 @@
         <v>110</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>40</v>
@@ -16304,7 +16308,7 @@
         <v>40</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -16333,7 +16337,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16356,16 +16360,16 @@
         <v>40</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -16415,7 +16419,7 @@
         <v>40</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -16444,10 +16448,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>40</v>
@@ -16472,10 +16476,10 @@
         <v>152</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16526,7 +16530,7 @@
         <v>40</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -16555,7 +16559,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16664,7 +16668,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16775,7 +16779,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16888,7 +16892,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16914,10 +16918,10 @@
         <v>106</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16929,7 +16933,7 @@
         <v>40</v>
       </c>
       <c r="R140" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S140" t="s" s="2">
         <v>40</v>
@@ -16947,10 +16951,10 @@
         <v>110</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>40</v>
@@ -16968,7 +16972,7 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -16997,7 +17001,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17020,16 +17024,16 @@
         <v>40</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -17079,7 +17083,7 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -17108,10 +17112,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>40</v>
@@ -17136,10 +17140,10 @@
         <v>152</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17190,7 +17194,7 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -17219,7 +17223,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17328,7 +17332,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17439,7 +17443,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17552,7 +17556,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17578,10 +17582,10 @@
         <v>106</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17593,7 +17597,7 @@
         <v>40</v>
       </c>
       <c r="R146" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>40</v>
@@ -17611,10 +17615,10 @@
         <v>110</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>40</v>
@@ -17632,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -17661,7 +17665,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17684,16 +17688,16 @@
         <v>40</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -17743,7 +17747,7 @@
         <v>40</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -17772,7 +17776,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17795,13 +17799,13 @@
         <v>40</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17852,7 +17856,7 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -17881,7 +17885,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17907,10 +17911,10 @@
         <v>152</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17961,7 +17965,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -17990,7 +17994,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18099,7 +18103,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18210,7 +18214,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18323,7 +18327,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18349,10 +18353,10 @@
         <v>126</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18403,7 +18407,7 @@
         <v>40</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>48</v>
@@ -18432,7 +18436,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18458,10 +18462,10 @@
         <v>152</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18512,7 +18516,7 @@
         <v>40</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -18541,7 +18545,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18650,7 +18654,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18761,7 +18765,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18874,7 +18878,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18900,10 +18904,10 @@
         <v>106</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18954,7 +18958,7 @@
         <v>40</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>48</v>
@@ -18983,7 +18987,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19009,10 +19013,10 @@
         <v>211</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19063,7 +19067,7 @@
         <v>40</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>48</v>
@@ -19092,7 +19096,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19118,10 +19122,10 @@
         <v>152</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19172,7 +19176,7 @@
         <v>40</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -19201,7 +19205,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19310,7 +19314,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19421,7 +19425,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19534,7 +19538,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19560,10 +19564,10 @@
         <v>106</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19614,7 +19618,7 @@
         <v>40</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>48</v>
@@ -19643,7 +19647,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19669,10 +19673,10 @@
         <v>152</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19723,7 +19727,7 @@
         <v>40</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -19752,7 +19756,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19861,7 +19865,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19972,7 +19976,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20085,7 +20089,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20111,10 +20115,10 @@
         <v>143</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20165,7 +20169,7 @@
         <v>40</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>48</v>
@@ -20194,7 +20198,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20217,13 +20221,13 @@
         <v>40</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20274,7 +20278,7 @@
         <v>40</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -20303,7 +20307,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20329,10 +20333,10 @@
         <v>152</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -20383,7 +20387,7 @@
         <v>40</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -20412,7 +20416,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20521,7 +20525,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20632,7 +20636,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20745,7 +20749,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20771,10 +20775,10 @@
         <v>143</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -20825,7 +20829,7 @@
         <v>40</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -20854,7 +20858,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20880,10 +20884,10 @@
         <v>143</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -20934,7 +20938,7 @@
         <v>40</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -20963,7 +20967,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20986,13 +20990,13 @@
         <v>40</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -21043,7 +21047,7 @@
         <v>40</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -12252,7 +12252,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>48</v>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>48</v>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>48</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>48</v>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>48</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>48</v>
@@ -16236,7 +16236,7 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>48</v>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>48</v>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>48</v>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$178</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6167" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -610,6 +610,21 @@
   </si>
   <si>
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>productLevel</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
+    &lt;code value="PACKMEDPROD"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>MedicationKnowledge.monograph</t>
@@ -1501,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM177"/>
+  <dimension ref="A1:AM178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4760,7 +4775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>184</v>
       </c>
@@ -4770,7 +4785,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>42</v>
@@ -4830,16 +4845,14 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>184</v>
@@ -4869,23 +4882,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4894,13 +4909,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4912,7 +4927,7 @@
         <v>40</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>40</v>
@@ -4951,7 +4966,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4978,7 +4993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>190</v>
       </c>
@@ -4991,10 +5006,10 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5003,13 +5018,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5060,22 +5075,22 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -5089,18 +5104,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -5112,17 +5127,15 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5171,19 +5184,19 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>162</v>
@@ -5200,11 +5213,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5217,26 +5230,24 @@
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5284,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5299,7 +5310,7 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -5313,39 +5324,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5393,22 +5408,22 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -5445,13 +5460,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5529,9 +5544,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5542,10 +5557,10 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5554,13 +5569,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5611,13 +5626,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5638,7 +5653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>201</v>
       </c>
@@ -5651,10 +5666,10 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5663,13 +5678,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5720,22 +5735,22 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5749,18 +5764,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5772,17 +5787,15 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5831,19 +5844,19 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>162</v>
@@ -5860,11 +5873,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5877,26 +5890,24 @@
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5959,7 +5970,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -5973,39 +5984,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6053,36 +6068,36 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6090,7 +6105,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>48</v>
@@ -6105,18 +6120,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6164,10 +6177,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>48</v>
@@ -6179,21 +6192,21 @@
         <v>60</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6216,16 +6229,18 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6273,7 +6288,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6288,21 +6303,21 @@
         <v>60</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6325,13 +6340,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6382,7 +6397,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6397,21 +6412,21 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6422,10 +6437,10 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6434,7 +6449,7 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>227</v>
@@ -6467,13 +6482,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6491,13 +6506,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6520,7 +6535,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6543,13 +6558,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6576,13 +6591,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6600,7 +6615,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6627,7 +6642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>234</v>
       </c>
@@ -6640,10 +6655,10 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6652,13 +6667,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6709,22 +6724,22 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -6738,18 +6753,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6761,17 +6776,15 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6820,19 +6833,19 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>162</v>
@@ -6849,11 +6862,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6866,26 +6879,24 @@
         <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6948,7 +6959,7 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -6962,39 +6973,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7042,22 +7057,22 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -7079,7 +7094,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>48</v>
@@ -7094,7 +7109,7 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>241</v>
@@ -7154,7 +7169,7 @@
         <v>240</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>48</v>
@@ -7188,7 +7203,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>48</v>
@@ -7203,13 +7218,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7263,7 +7278,7 @@
         <v>243</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>48</v>
@@ -7297,10 +7312,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7312,13 +7327,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7372,10 +7387,10 @@
         <v>246</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7409,7 +7424,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7421,13 +7436,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7478,22 +7493,22 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -7507,18 +7522,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7530,17 +7545,15 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7589,19 +7602,19 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>162</v>
@@ -7618,11 +7631,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7635,26 +7648,24 @@
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7702,7 +7713,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7717,7 +7728,7 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -7731,39 +7742,43 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7811,22 +7826,22 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -7863,7 +7878,7 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>256</v>
@@ -7960,7 +7975,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7972,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>259</v>
@@ -8035,7 +8050,7 @@
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -8069,7 +8084,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -8081,13 +8096,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8138,22 +8153,22 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8167,18 +8182,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8190,17 +8205,15 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8249,19 +8262,19 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>162</v>
@@ -8278,11 +8291,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8295,26 +8308,24 @@
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8362,7 +8373,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8377,7 +8388,7 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -8391,11 +8402,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8408,22 +8419,26 @@
         <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8471,7 +8486,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8483,10 +8498,10 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -8511,7 +8526,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8523,13 +8538,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8580,22 +8595,22 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
@@ -8609,18 +8624,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8632,17 +8647,15 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8691,19 +8704,19 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>162</v>
@@ -8720,11 +8733,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8737,26 +8750,24 @@
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8804,7 +8815,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8819,7 +8830,7 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -8833,39 +8844,43 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8913,22 +8928,22 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
@@ -8953,7 +8968,7 @@
         <v>48</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8965,13 +8980,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="L68" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9028,7 +9043,7 @@
         <v>48</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -9051,7 +9066,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9059,10 +9074,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9074,13 +9089,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9131,13 +9146,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9160,7 +9175,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9171,7 +9186,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9183,7 +9198,7 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>280</v>
@@ -9240,13 +9255,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9280,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9292,13 +9307,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9349,22 +9364,22 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -9378,18 +9393,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9401,17 +9416,15 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9460,19 +9473,19 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>162</v>
@@ -9489,11 +9502,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9506,26 +9519,24 @@
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9573,7 +9584,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9588,7 +9599,7 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -9602,39 +9613,43 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9682,22 +9697,22 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
@@ -9711,7 +9726,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9719,10 +9734,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9734,7 +9749,7 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>290</v>
@@ -9791,13 +9806,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9834,7 +9849,7 @@
         <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -9843,7 +9858,7 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>293</v>
@@ -9888,16 +9903,16 @@
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>292</v>
@@ -9929,7 +9944,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9940,10 +9955,10 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -9952,13 +9967,13 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9997,34 +10012,34 @@
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
@@ -10038,18 +10053,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -10061,17 +10076,15 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10120,19 +10133,19 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>162</v>
@@ -10149,11 +10162,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10166,26 +10179,24 @@
         <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10233,7 +10244,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10248,7 +10259,7 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -10262,39 +10273,43 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10342,22 +10357,22 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -10379,10 +10394,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10454,10 +10469,10 @@
         <v>302</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10478,13 +10493,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B82" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10496,7 +10509,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -10505,13 +10518,13 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10562,7 +10575,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10589,11 +10602,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10602,10 +10617,10 @@
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -10614,13 +10629,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10671,22 +10686,22 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
@@ -10700,18 +10715,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10723,17 +10738,15 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10782,19 +10795,19 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>162</v>
@@ -10811,11 +10824,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10828,26 +10841,24 @@
         <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N85" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10895,7 +10906,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10910,7 +10921,7 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -10924,39 +10935,43 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10965,7 +10980,7 @@
         <v>40</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>40</v>
@@ -11004,22 +11019,22 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
@@ -11041,10 +11056,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11074,7 +11089,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11116,10 +11131,10 @@
         <v>302</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11140,9 +11155,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11153,10 +11168,10 @@
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -11165,13 +11180,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11222,13 +11237,13 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
@@ -11249,7 +11264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>310</v>
       </c>
@@ -11265,7 +11280,7 @@
         <v>48</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -11274,13 +11289,13 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11331,7 +11346,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11343,10 +11358,10 @@
         <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
@@ -11360,18 +11375,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
@@ -11383,17 +11398,15 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11442,19 +11455,19 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>162</v>
@@ -11471,11 +11484,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11488,26 +11501,24 @@
         <v>40</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>40</v>
       </c>
@@ -11555,7 +11566,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11570,7 +11581,7 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>40</v>
@@ -11584,39 +11595,43 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
@@ -11640,13 +11655,13 @@
         <v>40</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>40</v>
@@ -11664,22 +11679,22 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>40</v>
@@ -11693,7 +11708,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11716,13 +11731,13 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11749,13 +11764,13 @@
         <v>40</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>40</v>
@@ -11773,7 +11788,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11813,10 +11828,10 @@
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>40</v>
@@ -11825,7 +11840,7 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>322</v>
@@ -11870,16 +11885,16 @@
         <v>40</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
         <v>321</v>
@@ -11888,7 +11903,7 @@
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>40</v>
@@ -11922,10 +11937,10 @@
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>40</v>
@@ -11934,13 +11949,13 @@
         <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11979,34 +11994,34 @@
         <v>40</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>40</v>
@@ -12020,18 +12035,18 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>40</v>
@@ -12043,17 +12058,15 @@
         <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
@@ -12102,19 +12115,19 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>162</v>
@@ -12131,11 +12144,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12148,26 +12161,24 @@
         <v>40</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12215,7 +12226,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12230,7 +12241,7 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>40</v>
@@ -12244,39 +12255,43 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>40</v>
       </c>
@@ -12300,13 +12315,13 @@
         <v>40</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -12324,22 +12339,22 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>40</v>
@@ -12353,7 +12368,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12376,17 +12391,15 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12411,13 +12424,13 @@
         <v>40</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>40</v>
@@ -12435,7 +12448,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12462,13 +12475,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
         <v>40</v>
       </c>
@@ -12480,7 +12491,7 @@
         <v>48</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>40</v>
@@ -12489,15 +12500,17 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12546,13 +12559,13 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>40</v>
@@ -12573,11 +12586,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C101" t="s" s="2">
         <v>40</v>
       </c>
@@ -12589,7 +12604,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>40</v>
@@ -12598,13 +12613,13 @@
         <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12655,22 +12670,22 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>40</v>
@@ -12684,18 +12699,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
@@ -12707,17 +12722,15 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>40</v>
@@ -12766,19 +12779,19 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>162</v>
@@ -12795,11 +12808,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12812,26 +12825,24 @@
         <v>40</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N103" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>40</v>
       </c>
@@ -12879,7 +12890,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12894,7 +12905,7 @@
         <v>99</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>40</v>
@@ -12908,39 +12919,43 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>40</v>
       </c>
@@ -12949,7 +12964,7 @@
         <v>40</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>40</v>
@@ -12964,13 +12979,13 @@
         <v>40</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>40</v>
@@ -12988,22 +13003,22 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>40</v>
@@ -13017,7 +13032,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13025,7 +13040,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>48</v>
@@ -13040,17 +13055,15 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>40</v>
@@ -13060,7 +13073,7 @@
         <v>40</v>
       </c>
       <c r="R105" t="s" s="2">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>40</v>
@@ -13075,13 +13088,13 @@
         <v>40</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
@@ -13099,7 +13112,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13126,13 +13139,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>40</v>
       </c>
@@ -13144,7 +13155,7 @@
         <v>48</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>40</v>
@@ -13153,15 +13164,17 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13210,13 +13223,13 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>40</v>
@@ -13237,11 +13250,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>40</v>
       </c>
@@ -13253,7 +13268,7 @@
         <v>48</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>40</v>
@@ -13262,13 +13277,13 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13319,22 +13334,22 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>40</v>
@@ -13348,18 +13363,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
@@ -13371,17 +13386,15 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13430,19 +13443,19 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>162</v>
@@ -13459,11 +13472,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13476,26 +13489,24 @@
         <v>40</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>40</v>
       </c>
@@ -13543,7 +13554,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13558,7 +13569,7 @@
         <v>99</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>40</v>
@@ -13572,39 +13583,43 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
       </c>
@@ -13613,7 +13628,7 @@
         <v>40</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>40</v>
@@ -13628,13 +13643,13 @@
         <v>40</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>40</v>
@@ -13652,22 +13667,22 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>40</v>
@@ -13681,7 +13696,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13689,7 +13704,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>48</v>
@@ -13704,17 +13719,15 @@
         <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>40</v>
@@ -13724,7 +13737,7 @@
         <v>40</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>40</v>
@@ -13739,13 +13752,13 @@
         <v>40</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>40</v>
@@ -13763,7 +13776,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13790,13 +13803,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>40</v>
       </c>
@@ -13808,7 +13819,7 @@
         <v>48</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>40</v>
@@ -13817,15 +13828,17 @@
         <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>40</v>
@@ -13874,13 +13887,13 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>40</v>
@@ -13901,11 +13914,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>40</v>
       </c>
@@ -13917,7 +13932,7 @@
         <v>48</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>40</v>
@@ -13926,13 +13941,13 @@
         <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13983,22 +13998,22 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>40</v>
@@ -14012,18 +14027,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>40</v>
@@ -14035,17 +14050,15 @@
         <v>40</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>40</v>
@@ -14094,19 +14107,19 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>162</v>
@@ -14123,11 +14136,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14140,26 +14153,24 @@
         <v>40</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N115" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>40</v>
       </c>
@@ -14207,7 +14218,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14222,7 +14233,7 @@
         <v>99</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>40</v>
@@ -14236,39 +14247,43 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
       </c>
@@ -14277,7 +14292,7 @@
         <v>40</v>
       </c>
       <c r="R116" t="s" s="2">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>40</v>
@@ -14292,13 +14307,13 @@
         <v>40</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>40</v>
@@ -14316,22 +14331,22 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>40</v>
@@ -14345,7 +14360,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14353,7 +14368,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>48</v>
@@ -14368,17 +14383,15 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>40</v>
@@ -14388,7 +14401,7 @@
         <v>40</v>
       </c>
       <c r="R117" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>40</v>
@@ -14403,13 +14416,13 @@
         <v>40</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>40</v>
@@ -14427,7 +14440,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14454,13 +14467,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
         <v>40</v>
       </c>
@@ -14472,7 +14483,7 @@
         <v>48</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>40</v>
@@ -14481,15 +14492,17 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14538,13 +14551,13 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>40</v>
@@ -14565,11 +14578,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="C119" t="s" s="2">
         <v>40</v>
       </c>
@@ -14581,7 +14596,7 @@
         <v>48</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>40</v>
@@ -14590,13 +14605,13 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14647,22 +14662,22 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>40</v>
@@ -14676,18 +14691,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>40</v>
@@ -14699,17 +14714,15 @@
         <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>40</v>
@@ -14758,19 +14771,19 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>162</v>
@@ -14787,11 +14800,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14804,26 +14817,24 @@
         <v>40</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N121" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>40</v>
       </c>
@@ -14871,7 +14882,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -14886,7 +14897,7 @@
         <v>99</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>40</v>
@@ -14900,39 +14911,43 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>40</v>
       </c>
@@ -14941,7 +14956,7 @@
         <v>40</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>40</v>
@@ -14956,13 +14971,13 @@
         <v>40</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>40</v>
@@ -14980,22 +14995,22 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>40</v>
@@ -15009,7 +15024,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15017,7 +15032,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>48</v>
@@ -15032,17 +15047,15 @@
         <v>40</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>40</v>
@@ -15052,7 +15065,7 @@
         <v>40</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>40</v>
@@ -15067,13 +15080,13 @@
         <v>40</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>40</v>
@@ -15091,7 +15104,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15118,13 +15131,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>40</v>
       </c>
@@ -15133,10 +15144,10 @@
         <v>41</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>40</v>
@@ -15145,15 +15156,17 @@
         <v>40</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>40</v>
@@ -15202,13 +15215,13 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>40</v>
@@ -15229,11 +15242,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="C125" t="s" s="2">
         <v>40</v>
       </c>
@@ -15242,10 +15257,10 @@
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>40</v>
@@ -15254,13 +15269,13 @@
         <v>40</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15311,22 +15326,22 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>40</v>
@@ -15340,18 +15355,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>40</v>
@@ -15363,17 +15378,15 @@
         <v>40</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>40</v>
@@ -15422,19 +15435,19 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>162</v>
@@ -15451,11 +15464,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15468,26 +15481,24 @@
         <v>40</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J127" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N127" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>40</v>
       </c>
@@ -15535,7 +15546,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15550,7 +15561,7 @@
         <v>99</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>40</v>
@@ -15564,39 +15575,43 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
       </c>
@@ -15605,7 +15620,7 @@
         <v>40</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>40</v>
@@ -15620,13 +15635,13 @@
         <v>40</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15644,22 +15659,22 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>40</v>
@@ -15673,7 +15688,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15681,7 +15696,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>48</v>
@@ -15696,17 +15711,15 @@
         <v>40</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>40</v>
@@ -15716,7 +15729,7 @@
         <v>40</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>40</v>
@@ -15731,13 +15744,13 @@
         <v>40</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>40</v>
@@ -15755,7 +15768,7 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -15782,13 +15795,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
         <v>40</v>
       </c>
@@ -15797,10 +15808,10 @@
         <v>41</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>40</v>
@@ -15809,15 +15820,17 @@
         <v>40</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>40</v>
@@ -15866,13 +15879,13 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>40</v>
@@ -15893,11 +15906,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C131" t="s" s="2">
         <v>40</v>
       </c>
@@ -15906,10 +15921,10 @@
         <v>41</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>40</v>
@@ -15918,13 +15933,13 @@
         <v>40</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -15975,22 +15990,22 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>40</v>
@@ -16004,18 +16019,18 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>40</v>
@@ -16027,17 +16042,15 @@
         <v>40</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>40</v>
@@ -16086,19 +16099,19 @@
         <v>40</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>162</v>
@@ -16115,11 +16128,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16132,26 +16145,24 @@
         <v>40</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N133" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>40</v>
       </c>
@@ -16199,7 +16210,7 @@
         <v>40</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -16214,7 +16225,7 @@
         <v>99</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>40</v>
@@ -16228,39 +16239,43 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>40</v>
       </c>
@@ -16269,7 +16284,7 @@
         <v>40</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>40</v>
@@ -16284,13 +16299,13 @@
         <v>40</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>40</v>
@@ -16308,22 +16323,22 @@
         <v>40</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>40</v>
@@ -16337,7 +16352,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16345,7 +16360,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>48</v>
@@ -16360,17 +16375,15 @@
         <v>40</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>40</v>
@@ -16380,7 +16393,7 @@
         <v>40</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>40</v>
@@ -16395,13 +16408,13 @@
         <v>40</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>40</v>
@@ -16419,7 +16432,7 @@
         <v>40</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -16446,13 +16459,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
         <v>40</v>
       </c>
@@ -16464,7 +16475,7 @@
         <v>48</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>40</v>
@@ -16473,15 +16484,17 @@
         <v>40</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M136" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>40</v>
@@ -16530,13 +16543,13 @@
         <v>40</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>40</v>
@@ -16557,11 +16570,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="C137" t="s" s="2">
         <v>40</v>
       </c>
@@ -16573,7 +16588,7 @@
         <v>48</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>40</v>
@@ -16582,13 +16597,13 @@
         <v>40</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16639,22 +16654,22 @@
         <v>40</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>40</v>
@@ -16668,18 +16683,18 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>40</v>
@@ -16691,17 +16706,15 @@
         <v>40</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>40</v>
@@ -16750,19 +16763,19 @@
         <v>40</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>162</v>
@@ -16779,11 +16792,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16796,26 +16809,24 @@
         <v>40</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N139" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>40</v>
       </c>
@@ -16863,7 +16874,7 @@
         <v>40</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -16878,7 +16889,7 @@
         <v>99</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>40</v>
@@ -16892,39 +16903,43 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>40</v>
       </c>
@@ -16933,7 +16948,7 @@
         <v>40</v>
       </c>
       <c r="R140" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="S140" t="s" s="2">
         <v>40</v>
@@ -16948,13 +16963,13 @@
         <v>40</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>40</v>
@@ -16972,22 +16987,22 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>40</v>
@@ -17001,7 +17016,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17009,7 +17024,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>48</v>
@@ -17024,17 +17039,15 @@
         <v>40</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>40</v>
@@ -17044,7 +17057,7 @@
         <v>40</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>40</v>
@@ -17059,13 +17072,13 @@
         <v>40</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>40</v>
@@ -17083,7 +17096,7 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -17110,13 +17123,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
         <v>40</v>
       </c>
@@ -17128,7 +17139,7 @@
         <v>48</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>40</v>
@@ -17137,15 +17148,17 @@
         <v>40</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>40</v>
@@ -17194,13 +17207,13 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>40</v>
@@ -17221,11 +17234,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B143" s="2"/>
+      <c r="B143" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="C143" t="s" s="2">
         <v>40</v>
       </c>
@@ -17237,7 +17252,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>40</v>
@@ -17246,13 +17261,13 @@
         <v>40</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17303,22 +17318,22 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>40</v>
@@ -17332,18 +17347,18 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>40</v>
@@ -17355,17 +17370,15 @@
         <v>40</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>40</v>
@@ -17414,19 +17427,19 @@
         <v>40</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>162</v>
@@ -17443,11 +17456,11 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17460,26 +17473,24 @@
         <v>40</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N145" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>40</v>
       </c>
@@ -17527,7 +17538,7 @@
         <v>40</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -17542,7 +17553,7 @@
         <v>99</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>40</v>
@@ -17556,39 +17567,43 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>40</v>
       </c>
@@ -17597,7 +17612,7 @@
         <v>40</v>
       </c>
       <c r="R146" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>40</v>
@@ -17612,13 +17627,13 @@
         <v>40</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>40</v>
@@ -17636,22 +17651,22 @@
         <v>40</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>40</v>
@@ -17665,7 +17680,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17673,7 +17688,7 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>48</v>
@@ -17688,17 +17703,15 @@
         <v>40</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>40</v>
@@ -17708,7 +17721,7 @@
         <v>40</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>40</v>
@@ -17723,13 +17736,13 @@
         <v>40</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>40</v>
@@ -17747,7 +17760,7 @@
         <v>40</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -17774,9 +17787,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17787,10 +17800,10 @@
         <v>41</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>40</v>
@@ -17799,15 +17812,17 @@
         <v>40</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M148" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>40</v>
@@ -17856,13 +17871,13 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>40</v>
@@ -17885,7 +17900,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17908,7 +17923,7 @@
         <v>40</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>358</v>
@@ -17965,7 +17980,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -17992,7 +18007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>360</v>
       </c>
@@ -18005,10 +18020,10 @@
         <v>41</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>40</v>
@@ -18017,13 +18032,13 @@
         <v>40</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18074,22 +18089,22 @@
         <v>40</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>40</v>
@@ -18103,18 +18118,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>40</v>
@@ -18126,17 +18141,15 @@
         <v>40</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>40</v>
@@ -18185,19 +18198,19 @@
         <v>40</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>162</v>
@@ -18214,11 +18227,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18231,26 +18244,24 @@
         <v>40</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N152" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>40</v>
       </c>
@@ -18298,7 +18309,7 @@
         <v>40</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -18313,7 +18324,7 @@
         <v>99</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>40</v>
@@ -18327,39 +18338,43 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>40</v>
       </c>
@@ -18407,22 +18422,22 @@
         <v>40</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>363</v>
+        <v>170</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>40</v>
@@ -18444,10 +18459,10 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>40</v>
@@ -18459,7 +18474,7 @@
         <v>40</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>367</v>
@@ -18519,10 +18534,10 @@
         <v>366</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>40</v>
@@ -18556,7 +18571,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>40</v>
@@ -18568,13 +18583,13 @@
         <v>40</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18625,22 +18640,22 @@
         <v>40</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>40</v>
@@ -18654,18 +18669,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>40</v>
@@ -18677,17 +18692,15 @@
         <v>40</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>40</v>
@@ -18736,19 +18749,19 @@
         <v>40</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>162</v>
@@ -18765,11 +18778,11 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -18782,26 +18795,24 @@
         <v>40</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J157" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N157" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>40</v>
       </c>
@@ -18849,7 +18860,7 @@
         <v>40</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -18864,7 +18875,7 @@
         <v>99</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>40</v>
@@ -18878,39 +18889,43 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>373</v>
+        <v>168</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>40</v>
       </c>
@@ -18958,22 +18973,22 @@
         <v>40</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>372</v>
+        <v>170</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>40</v>
@@ -19010,7 +19025,7 @@
         <v>40</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>376</v>
@@ -19104,10 +19119,10 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>40</v>
@@ -19119,7 +19134,7 @@
         <v>40</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>379</v>
@@ -19179,10 +19194,10 @@
         <v>378</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>40</v>
@@ -19216,7 +19231,7 @@
         <v>41</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>40</v>
@@ -19228,13 +19243,13 @@
         <v>40</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>159</v>
+        <v>382</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19285,22 +19300,22 @@
         <v>40</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>40</v>
@@ -19314,18 +19329,18 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>40</v>
@@ -19337,17 +19352,15 @@
         <v>40</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>40</v>
@@ -19396,19 +19409,19 @@
         <v>40</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>162</v>
@@ -19425,11 +19438,11 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -19442,26 +19455,24 @@
         <v>40</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N163" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>40</v>
       </c>
@@ -19509,7 +19520,7 @@
         <v>40</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -19524,7 +19535,7 @@
         <v>99</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>40</v>
@@ -19538,39 +19549,43 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>385</v>
+        <v>168</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>40</v>
       </c>
@@ -19618,22 +19633,22 @@
         <v>40</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>384</v>
+        <v>170</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>40</v>
@@ -19655,7 +19670,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>48</v>
@@ -19670,7 +19685,7 @@
         <v>40</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>388</v>
@@ -19730,7 +19745,7 @@
         <v>387</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>48</v>
@@ -19779,13 +19794,13 @@
         <v>40</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19836,7 +19851,7 @@
         <v>40</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>161</v>
+        <v>390</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -19848,10 +19863,10 @@
         <v>40</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>40</v>
@@ -19865,18 +19880,18 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>40</v>
@@ -19888,17 +19903,15 @@
         <v>40</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>40</v>
@@ -19947,19 +19960,19 @@
         <v>40</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>162</v>
@@ -19976,11 +19989,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -19993,26 +20006,24 @@
         <v>40</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>40</v>
       </c>
@@ -20060,7 +20071,7 @@
         <v>40</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -20075,7 +20086,7 @@
         <v>99</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>40</v>
@@ -20089,39 +20100,43 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>394</v>
+        <v>168</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>40</v>
       </c>
@@ -20169,22 +20184,22 @@
         <v>40</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>393</v>
+        <v>170</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>40</v>
@@ -20206,7 +20221,7 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>48</v>
@@ -20221,13 +20236,13 @@
         <v>40</v>
       </c>
       <c r="J170" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K170" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K170" t="s" s="2">
+      <c r="L170" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20281,7 +20296,7 @@
         <v>396</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>48</v>
@@ -20305,9 +20320,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20318,10 +20333,10 @@
         <v>41</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>40</v>
@@ -20330,7 +20345,7 @@
         <v>40</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>401</v>
@@ -20387,13 +20402,13 @@
         <v>40</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>40</v>
@@ -20414,7 +20429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>403</v>
       </c>
@@ -20427,10 +20442,10 @@
         <v>41</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>40</v>
@@ -20439,13 +20454,13 @@
         <v>40</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>159</v>
+        <v>404</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20496,22 +20511,22 @@
         <v>40</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>161</v>
+        <v>403</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>40</v>
@@ -20525,18 +20540,18 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>40</v>
@@ -20548,17 +20563,15 @@
         <v>40</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
         <v>40</v>
@@ -20607,19 +20620,19 @@
         <v>40</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>162</v>
@@ -20636,11 +20649,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -20653,26 +20666,24 @@
         <v>40</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J174" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N174" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>40</v>
       </c>
@@ -20720,7 +20731,7 @@
         <v>40</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -20735,7 +20746,7 @@
         <v>99</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>40</v>
@@ -20749,11 +20760,11 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -20766,22 +20777,26 @@
         <v>40</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>407</v>
+        <v>168</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O175" t="s" s="2">
         <v>40</v>
       </c>
@@ -20829,7 +20844,7 @@
         <v>40</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>406</v>
+        <v>170</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -20841,10 +20856,10 @@
         <v>40</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>40</v>
@@ -20978,7 +20993,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>40</v>
@@ -20990,7 +21005,7 @@
         <v>40</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>397</v>
+        <v>143</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>413</v>
@@ -21053,7 +21068,7 @@
         <v>41</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>40</v>
@@ -21074,8 +21089,117 @@
         <v>40</v>
       </c>
     </row>
+    <row r="178" hidden="true">
+      <c r="A178" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P178" s="2"/>
+      <c r="Q178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM177">
+  <autoFilter ref="A1:AM178">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21085,7 +21209,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI176">
+  <conditionalFormatting sqref="A2:AI177">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6167" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6167" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -959,10 +959,6 @@
   </si>
   <si>
     <t>Categorization of the medication within a formulary or classification system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
   </si>
   <si>
     <t>MedicationKnowledge.medicineClassification.id</t>
@@ -10012,7 +10008,7 @@
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>156</v>
@@ -10053,7 +10049,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10162,7 +10158,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10273,7 +10269,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10386,7 +10382,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10412,10 +10408,10 @@
         <v>106</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10466,7 +10462,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>48</v>
@@ -10495,7 +10491,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10521,10 +10517,10 @@
         <v>106</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10575,7 +10571,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10607,7 +10603,7 @@
         <v>295</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>40</v>
@@ -10715,7 +10711,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10824,7 +10820,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10935,7 +10931,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11048,7 +11044,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11074,10 +11070,10 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11089,7 +11085,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11128,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>48</v>
@@ -11157,7 +11153,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11183,10 +11179,10 @@
         <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11237,7 +11233,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11266,7 +11262,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11292,10 +11288,10 @@
         <v>152</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11346,7 +11342,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11375,7 +11371,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11484,7 +11480,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11595,7 +11591,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11708,7 +11704,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11734,10 +11730,10 @@
         <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11767,11 +11763,11 @@
         <v>110</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y93" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z93" t="s" s="2">
         <v>40</v>
       </c>
@@ -11788,7 +11784,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11817,7 +11813,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11843,10 +11839,10 @@
         <v>143</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11897,7 +11893,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11926,7 +11922,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11952,10 +11948,10 @@
         <v>152</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11994,7 +11990,7 @@
         <v>40</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>156</v>
@@ -12006,7 +12002,7 @@
         <v>157</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12035,7 +12031,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12144,7 +12140,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12255,7 +12251,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12368,7 +12364,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12394,10 +12390,10 @@
         <v>106</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12427,11 +12423,11 @@
         <v>110</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>40</v>
       </c>
@@ -12448,7 +12444,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12477,7 +12473,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12500,16 +12496,16 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12559,7 +12555,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12588,10 +12584,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>40</v>
@@ -12616,10 +12612,10 @@
         <v>152</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12670,7 +12666,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12699,7 +12695,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12808,7 +12804,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12919,7 +12915,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13032,7 +13028,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13058,10 +13054,10 @@
         <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13073,7 +13069,7 @@
         <v>40</v>
       </c>
       <c r="R105" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>40</v>
@@ -13091,11 +13087,11 @@
         <v>110</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
       </c>
@@ -13112,7 +13108,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13141,7 +13137,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13164,16 +13160,16 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13223,7 +13219,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13252,10 +13248,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>40</v>
@@ -13280,10 +13276,10 @@
         <v>152</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13334,7 +13330,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13363,7 +13359,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13472,7 +13468,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13583,7 +13579,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13696,7 +13692,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13722,10 +13718,10 @@
         <v>106</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13737,7 +13733,7 @@
         <v>40</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>40</v>
@@ -13755,11 +13751,11 @@
         <v>110</v>
       </c>
       <c r="X111" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y111" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z111" t="s" s="2">
         <v>40</v>
       </c>
@@ -13776,7 +13772,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13805,7 +13801,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13828,16 +13824,16 @@
         <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13887,7 +13883,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13916,10 +13912,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>40</v>
@@ -13944,10 +13940,10 @@
         <v>152</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13998,7 +13994,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -14027,7 +14023,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14136,7 +14132,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14247,7 +14243,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14360,7 +14356,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14386,10 +14382,10 @@
         <v>106</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14401,7 +14397,7 @@
         <v>40</v>
       </c>
       <c r="R117" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>40</v>
@@ -14419,11 +14415,11 @@
         <v>110</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>40</v>
       </c>
@@ -14440,7 +14436,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14469,7 +14465,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14492,16 +14488,16 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14551,7 +14547,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14580,10 +14576,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>40</v>
@@ -14608,10 +14604,10 @@
         <v>152</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14662,7 +14658,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -14691,7 +14687,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14800,7 +14796,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14911,7 +14907,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15024,7 +15020,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15050,10 +15046,10 @@
         <v>106</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15065,7 +15061,7 @@
         <v>40</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>40</v>
@@ -15083,11 +15079,11 @@
         <v>110</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y123" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y123" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z123" t="s" s="2">
         <v>40</v>
       </c>
@@ -15104,7 +15100,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15133,7 +15129,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15156,16 +15152,16 @@
         <v>40</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15215,7 +15211,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -15244,10 +15240,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>40</v>
@@ -15272,10 +15268,10 @@
         <v>152</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15326,7 +15322,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15355,7 +15351,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15464,7 +15460,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15575,7 +15571,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15688,7 +15684,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15714,10 +15710,10 @@
         <v>106</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15729,7 +15725,7 @@
         <v>40</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>40</v>
@@ -15747,11 +15743,11 @@
         <v>110</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>40</v>
       </c>
@@ -15768,7 +15764,7 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -15797,7 +15793,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15820,16 +15816,16 @@
         <v>40</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K130" t="s" s="2">
+      <c r="L130" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -15879,7 +15875,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -15908,10 +15904,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>40</v>
@@ -15936,10 +15932,10 @@
         <v>152</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -15990,7 +15986,7 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -16019,7 +16015,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16128,7 +16124,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16239,7 +16235,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16352,7 +16348,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16378,10 +16374,10 @@
         <v>106</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16393,7 +16389,7 @@
         <v>40</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>40</v>
@@ -16411,11 +16407,11 @@
         <v>110</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y135" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z135" t="s" s="2">
         <v>40</v>
       </c>
@@ -16432,7 +16428,7 @@
         <v>40</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -16461,7 +16457,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16484,16 +16480,16 @@
         <v>40</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -16543,7 +16539,7 @@
         <v>40</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -16572,10 +16568,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>40</v>
@@ -16600,10 +16596,10 @@
         <v>152</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16654,7 +16650,7 @@
         <v>40</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -16683,7 +16679,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16792,7 +16788,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16903,7 +16899,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17016,7 +17012,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17042,10 +17038,10 @@
         <v>106</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17057,7 +17053,7 @@
         <v>40</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>40</v>
@@ -17075,11 +17071,11 @@
         <v>110</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>40</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -17125,7 +17121,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17148,16 +17144,16 @@
         <v>40</v>
       </c>
       <c r="J142" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K142" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K142" t="s" s="2">
+      <c r="L142" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="M142" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -17207,7 +17203,7 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -17236,10 +17232,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>40</v>
@@ -17264,10 +17260,10 @@
         <v>152</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17318,7 +17314,7 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -17347,7 +17343,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17456,7 +17452,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17567,7 +17563,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17680,7 +17676,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17706,10 +17702,10 @@
         <v>106</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17721,7 +17717,7 @@
         <v>40</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>40</v>
@@ -17739,11 +17735,11 @@
         <v>110</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y147" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z147" t="s" s="2">
         <v>40</v>
       </c>
@@ -17760,7 +17756,7 @@
         <v>40</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -17789,7 +17785,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17812,16 +17808,16 @@
         <v>40</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K148" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K148" t="s" s="2">
+      <c r="L148" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17871,7 +17867,7 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -17900,7 +17896,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17923,13 +17919,13 @@
         <v>40</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K149" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K149" t="s" s="2">
+      <c r="L149" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17980,7 +17976,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -18009,7 +18005,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18035,10 +18031,10 @@
         <v>152</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18089,7 +18085,7 @@
         <v>40</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -18118,7 +18114,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18227,7 +18223,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18338,7 +18334,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18451,7 +18447,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18477,10 +18473,10 @@
         <v>126</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18531,7 +18527,7 @@
         <v>40</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>48</v>
@@ -18560,7 +18556,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18586,10 +18582,10 @@
         <v>152</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18640,7 +18636,7 @@
         <v>40</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -18669,7 +18665,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18778,7 +18774,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18889,7 +18885,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19002,7 +18998,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19028,10 +19024,10 @@
         <v>106</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19082,7 +19078,7 @@
         <v>40</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>48</v>
@@ -19111,7 +19107,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19137,10 +19133,10 @@
         <v>214</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19191,7 +19187,7 @@
         <v>40</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>48</v>
@@ -19220,7 +19216,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19246,10 +19242,10 @@
         <v>152</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19300,7 +19296,7 @@
         <v>40</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -19329,7 +19325,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19438,7 +19434,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19549,7 +19545,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19662,7 +19658,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19688,10 +19684,10 @@
         <v>106</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19742,7 +19738,7 @@
         <v>40</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>48</v>
@@ -19771,7 +19767,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19797,10 +19793,10 @@
         <v>152</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19851,7 +19847,7 @@
         <v>40</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -19880,7 +19876,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19989,7 +19985,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20100,7 +20096,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20213,7 +20209,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20239,10 +20235,10 @@
         <v>143</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20293,7 +20289,7 @@
         <v>40</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>48</v>
@@ -20322,7 +20318,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20345,13 +20341,13 @@
         <v>40</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -20402,7 +20398,7 @@
         <v>40</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -20431,7 +20427,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20457,10 +20453,10 @@
         <v>152</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20511,7 +20507,7 @@
         <v>40</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -20540,7 +20536,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20649,7 +20645,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20760,7 +20756,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20873,7 +20869,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20899,10 +20895,10 @@
         <v>143</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -20953,7 +20949,7 @@
         <v>40</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -20982,7 +20978,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21008,10 +21004,10 @@
         <v>143</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -21062,7 +21058,7 @@
         <v>40</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -21091,7 +21087,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21114,13 +21110,13 @@
         <v>40</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -21171,7 +21167,7 @@
         <v>40</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:11:10+00:00</t>
+    <t>2021-09-14T08:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:27:49+00:00</t>
+    <t>2021-10-08T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T08:43:20+00:00</t>
+    <t>2021-10-08T09:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -709,7 +709,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/example/CodeSystem/mediCS"/&gt;
     &lt;code value="PACKMEDPROD"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
+++ b/branches/master/StructureDefinition-PackagedMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
